--- a/public/scripts/parser/upload_file/table_data.xlsx
+++ b/public/scripts/parser/upload_file/table_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2938a5fd-f65b-11ea-bb9a-00155d016601</t>
+  </si>
+  <si>
+    <t>Стационарный двумерный сканер Mercury 8500 P2D Mirror Black</t>
+  </si>
+  <si>
+    <t>643ef408-f66e-11ea-bb9a-00155d016601</t>
+  </si>
+  <si>
+    <t>1С:Бухгалтерия 8. Базовая версия. Электронная поставка</t>
+  </si>
+  <si>
+    <t>5b3d1b78-12cc-11eb-bb9c-00155d016601</t>
+  </si>
+  <si>
+    <t>Штрих-М: Сервис обновления ФР. Единая Подписка на 12 месяцев. Для оборудования ТД Штрих-М</t>
+  </si>
+  <si>
+    <t>8bbca18f-33a7-11eb-bba4-00155d016601</t>
+  </si>
+  <si>
+    <t>ST741-5000</t>
+  </si>
+  <si>
+    <t>Эвотор Power Без ФН</t>
+  </si>
+  <si>
+    <t>a2e88a11-33a7-11eb-bba4-00155d016601</t>
+  </si>
+  <si>
+    <t>ST741-5000/15</t>
+  </si>
+  <si>
+    <t>Эвотор Power ФН15</t>
+  </si>
+  <si>
+    <t>aca403ff-33a7-11eb-bba4-00155d016601</t>
+  </si>
+  <si>
+    <t>ST741-5000/36</t>
+  </si>
+  <si>
+    <t>Эвотор Power ФН36</t>
+  </si>
+  <si>
+    <t>52990fe4-39ef-11eb-bba7-00155d016601</t>
+  </si>
+  <si>
+    <t>ККТ "ЭЛВЕС-ФР-Ф" черный без ФН</t>
+  </si>
+  <si>
+    <t>6a1fa8d9-39ef-11eb-bba7-00155d016601</t>
+  </si>
+  <si>
+    <t>ККТ "ЭЛВЕС-ФР-Ф" черный ФН15</t>
+  </si>
+  <si>
+    <t>82445a1a-39ef-11eb-bba7-00155d016601</t>
+  </si>
+  <si>
+    <t>137411/36</t>
+  </si>
+  <si>
+    <t>ККТ "ЭЛВЕС-ФР-Ф" черный ФН36</t>
+  </si>
+  <si>
+    <t>1af79def-3ad1-11eb-bba7-00155d016601</t>
+  </si>
+  <si>
+    <t>Штрих-М: Сервис обновления ФР. Единая Подписка на 12 месяцев. Для оборудования Центр-К</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +148,43 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4285F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,11 +192,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -92,8 +271,33 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,26 +576,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="48" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="48" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:48" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -436,12 +651,20 @@
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4109</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -486,12 +709,20 @@
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4601546116673</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -536,12 +767,20 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:48" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -586,12 +825,20 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>37400</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -636,6 +883,88 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
     </row>
+    <row r="6" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>137411</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9">
+        <v>137413</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:48" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:48" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/scripts/parser/upload_file/table_data.xlsx
+++ b/public/scripts/parser/upload_file/table_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>URL</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Штрих-М: Сервис обновления ФР. Единая Подписка на 12 месяцев. Для оборудования Центр-К</t>
+  </si>
+  <si>
+    <t>https://www.online-kassy.ru/tovary/evotor-power-s-fn-15-mes/</t>
+  </si>
+  <si>
+    <t>https://www.online-kassy.ru/tovary/evotor-power/</t>
+  </si>
+  <si>
+    <t>https://www.online-kassy.ru/tovary/evotor-power-s-fn-36-mes/</t>
   </si>
 </sst>
 </file>
@@ -579,7 +588,7 @@
   <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +661,9 @@
       <c r="AV1" s="1"/>
     </row>
     <row r="2" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
@@ -710,7 +721,9 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
@@ -768,7 +781,9 @@
       <c r="AV3" s="3"/>
     </row>
     <row r="4" spans="1:48" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
